--- a/owlcms/src/main/resources/templates/competitionBook/Masters-LEGAL.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Masters-LEGAL.xlsx
@@ -1,37 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28CD317F-7DA3-4C71-B738-4B7BD2E99A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B93F64-3321-4F72-BB1A-CCC380F34DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2805" windowWidth="21600" windowHeight="11295" tabRatio="555"/>
+    <workbookView xWindow="-25920" yWindow="2745" windowWidth="24225" windowHeight="11295" tabRatio="555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="33" r:id="rId1"/>
     <sheet name="M6" sheetId="29" r:id="rId2"/>
-    <sheet name="MSMF" sheetId="34" r:id="rId3"/>
-    <sheet name="W6" sheetId="30" r:id="rId4"/>
-    <sheet name="WSMF" sheetId="35" r:id="rId5"/>
-    <sheet name="MT" sheetId="31" r:id="rId6"/>
-    <sheet name="WT" sheetId="32" r:id="rId7"/>
-    <sheet name="Records" sheetId="37" r:id="rId8"/>
-    <sheet name="Points" sheetId="36" r:id="rId9"/>
+    <sheet name="MQAGE" sheetId="38" r:id="rId3"/>
+    <sheet name="MSMF" sheetId="34" r:id="rId4"/>
+    <sheet name="W6" sheetId="30" r:id="rId5"/>
+    <sheet name="WQAGE" sheetId="39" r:id="rId6"/>
+    <sheet name="WSMF" sheetId="35" r:id="rId7"/>
+    <sheet name="MT" sheetId="31" r:id="rId8"/>
+    <sheet name="WT" sheetId="32" r:id="rId9"/>
+    <sheet name="Records" sheetId="37" r:id="rId10"/>
+    <sheet name="Points" sheetId="36" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'M6'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">MSMF!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">MT!$10:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'W6'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">WSMF!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">WT!$10:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">MQAGE!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">MSMF!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">MT!$10:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'W6'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">WQAGE!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">WSMF!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">WT!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="146">
   <si>
     <t>M/F</t>
   </si>
@@ -400,72 +404,72 @@
     <t>$[VLOOKUP(J12,Points!$A$2:$B$202,2)]</t>
   </si>
   <si>
+    <t>&lt;jx:if test="${records != null}"&gt;</t>
+  </si>
+  <si>
+    <t>${t.get("Preparation.Records")}</t>
+  </si>
+  <si>
+    <t>${t.get("Results.RecordFederation")}</t>
+  </si>
+  <si>
+    <t>${t.get("Results.RecordName")}</t>
+  </si>
+  <si>
+    <t>${t.get("Results.RecordAgeGroup")}</t>
+  </si>
+  <si>
+    <t>${t.get("Results.RecordKind")}</t>
+  </si>
+  <si>
+    <t>${t.get("Results.RecordWeight")}</t>
+  </si>
+  <si>
+    <t>${t.get("Name")}</t>
+  </si>
+  <si>
+    <t>${t.get("Group")}</t>
+  </si>
+  <si>
+    <t>${t.get("Results.RecordDate")}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${records}" var="r"&gt;</t>
+  </si>
+  <si>
+    <t>${r.recordFederation}</t>
+  </si>
+  <si>
+    <t>${r.recordName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${r.ageGrp} </t>
+  </si>
+  <si>
+    <t>${r.categoryString}</t>
+  </si>
+  <si>
+    <t>${r.recordValue}</t>
+  </si>
+  <si>
+    <t>${r.nation}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${r.birth}</t>
+  </si>
+  <si>
+    <t>${r.groupNameString}</t>
+  </si>
+  <si>
+    <t>${r.recordDateAsString}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:if&gt;</t>
+  </si>
+  <si>
     <t>${group.jury1 != null ? t.get("JuryPresident") : ""}</t>
   </si>
   <si>
-    <t>&lt;jx:if test="${records != null}"&gt;</t>
-  </si>
-  <si>
-    <t>${t.get("Preparation.Records")}</t>
-  </si>
-  <si>
-    <t>${t.get("Results.RecordFederation")}</t>
-  </si>
-  <si>
-    <t>${t.get("Results.RecordName")}</t>
-  </si>
-  <si>
-    <t>${t.get("Results.RecordAgeGroup")}</t>
-  </si>
-  <si>
-    <t>${t.get("Results.RecordKind")}</t>
-  </si>
-  <si>
-    <t>${t.get("Results.RecordWeight")}</t>
-  </si>
-  <si>
-    <t>${t.get("Name")}</t>
-  </si>
-  <si>
-    <t>${t.get("Group")}</t>
-  </si>
-  <si>
-    <t>${t.get("Results.RecordDate")}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${records}" var="r"&gt;</t>
-  </si>
-  <si>
-    <t>${r.recordFederation}</t>
-  </si>
-  <si>
-    <t>${r.recordName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${r.ageGrp} </t>
-  </si>
-  <si>
-    <t>${r.categoryString}</t>
-  </si>
-  <si>
-    <t>${r.recordValue}</t>
-  </si>
-  <si>
-    <t>${r.nation}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${r.birth}</t>
-  </si>
-  <si>
-    <t>${r.groupNameString}</t>
-  </si>
-  <si>
-    <t>${r.recordDateAsString}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:if&gt;</t>
-  </si>
-  <si>
     <t>${r.resRecordLift}</t>
   </si>
   <si>
@@ -473,20 +477,32 @@
   </si>
   <si>
     <t>${l.totalRank}</t>
+  </si>
+  <si>
+    <t>${t.get("Ranking.QAGE")}</t>
+  </si>
+  <si>
+    <t>${t.get("Ranking.QPOINTS")}</t>
+  </si>
+  <si>
+    <t>${l.qPoints}</t>
+  </si>
+  <si>
+    <t>${l.qAge}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="180" formatCode="0.0;&quot;&quot;"/>
-    <numFmt numFmtId="181" formatCode="0;\(0\);\-"/>
-    <numFmt numFmtId="182" formatCode="0.000;&quot;&quot;;\-"/>
-    <numFmt numFmtId="183" formatCode="#,##0&quot;     &quot;;&quot; (&quot;#,##0&quot;)    &quot;;&quot; -&quot;#&quot;     &quot;;@\ "/>
-    <numFmt numFmtId="184" formatCode="#"/>
-    <numFmt numFmtId="185" formatCode="0;&quot;&quot;"/>
-    <numFmt numFmtId="187" formatCode="0;&quot;&quot;;\-"/>
+    <numFmt numFmtId="164" formatCode="0.0;&quot;&quot;"/>
+    <numFmt numFmtId="165" formatCode="0;\(0\);\-"/>
+    <numFmt numFmtId="166" formatCode="0.000;&quot;&quot;;\-"/>
+    <numFmt numFmtId="167" formatCode="#,##0&quot;     &quot;;&quot; (&quot;#,##0&quot;)    &quot;;&quot; -&quot;#&quot;     &quot;;@\ "/>
+    <numFmt numFmtId="168" formatCode="#"/>
+    <numFmt numFmtId="169" formatCode="0;&quot;&quot;"/>
+    <numFmt numFmtId="170" formatCode="0;&quot;&quot;;\-"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1092,13 +1108,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1106,8 +1122,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1120,24 +1136,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1185,15 +1201,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1202,7 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,16 +1271,16 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1344,9 +1360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1388,6 +1401,31 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1412,43 +1450,29 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Emphase 1" xfId="1"/>
-    <cellStyle name="Emphase 2" xfId="2"/>
-    <cellStyle name="Emphase 3" xfId="3"/>
-    <cellStyle name="Lien hypertexte 2" xfId="4"/>
+    <cellStyle name="Emphase 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Emphase 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Emphase 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Lien hypertexte 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Titre 1" xfId="7"/>
-    <cellStyle name="Titre 1 1" xfId="8"/>
-    <cellStyle name="Titre 1 1 1" xfId="9"/>
-    <cellStyle name="Titre de la feuille" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Titre 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Titre 1 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Titre 1 1 1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Titre de la feuille" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1941,15 +1965,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2088,7 +2110,7 @@
         <v>102</v>
       </c>
       <c r="L10" s="53" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>101</v>
@@ -3632,8 +3654,8 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showErrorMessage="1" sqref="Q11 I10:I12 D10:D13 N11:N12 R11:R12"/>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H16 H8:H9">
+    <dataValidation showErrorMessage="1" sqref="Q11 I10:I12 D10:D13 N11:N12 R11:R12" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H16 H8:H9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -3648,16 +3670,1898 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="1:24" s="68" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+    </row>
+    <row r="4" spans="1:24" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="79"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="73"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="73"/>
+      <c r="S4" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="79"/>
+      <c r="U4" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="V4" s="80"/>
+      <c r="X4" s="74"/>
+    </row>
+    <row r="5" spans="1:24" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="85"/>
+      <c r="M5" s="85"/>
+    </row>
+    <row r="6" spans="1:24" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="88"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="88"/>
+      <c r="S6" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="T6" s="88"/>
+      <c r="U6" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="V6" s="89"/>
+      <c r="X6" s="89"/>
+    </row>
+    <row r="7" spans="1:24" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="83"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:24" s="95" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="83"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:F3">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="78" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B202"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3685,58 +5589,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="103" t="s">
+      <c r="D1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106" t="s">
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="101" t="s">
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="101"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="38">
         <v>1</v>
       </c>
@@ -3894,11 +5798,11 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="R12" s="102"/>
+      <c r="R12" s="101"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="R13" s="102"/>
+      <c r="R13" s="101"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
@@ -4190,12 +6094,12 @@
     <mergeCell ref="N1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -4211,13 +6115,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FABBA97-39C6-49D5-A158-F8A84417C014}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -4244,62 +6148,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="103" t="s">
+      <c r="D1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122" t="s">
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="123" t="s">
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
+      <c r="R1" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="121"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="115"/>
       <c r="I2" s="12">
         <v>1</v>
       </c>
@@ -4324,12 +6228,12 @@
       <c r="P2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="124"/>
+      <c r="Q2" s="118"/>
       <c r="R2" s="49" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="T2" s="50" t="s">
         <v>80</v>
@@ -4409,10 +6313,10 @@
         <v>20</v>
       </c>
       <c r="R4" s="64" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="T4" s="66" t="s">
         <v>48</v>
@@ -4459,11 +6363,11 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="R10" s="102"/>
+      <c r="R10" s="101"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="R11" s="102"/>
+      <c r="R11" s="101"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
@@ -4741,6 +6645,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -4748,20 +6658,14 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{CC0A5D4E-226B-4BC3-B392-FD2BD37BEA1D}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -4777,15 +6681,577 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
+    <col min="21" max="22" width="10.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>2</v>
+      </c>
+      <c r="K2" s="12">
+        <v>3</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12">
+        <v>3</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="R10" s="101"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="R11" s="101"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4812,58 +7278,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="103" t="s">
+      <c r="D1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106" t="s">
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="101" t="s">
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="101"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="38">
         <v>1</v>
       </c>
@@ -5022,11 +7488,11 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="R12" s="102"/>
+      <c r="R12" s="101"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="R13" s="102"/>
+      <c r="R13" s="101"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
@@ -5304,18 +7770,18 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5">
     <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
@@ -5323,7 +7789,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -5338,8 +7804,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE7FAB-7408-465B-A4E4-22C597EFEB85}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5371,62 +7837,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="103" t="s">
+      <c r="D1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="114" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122" t="s">
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="123" t="s">
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
+      <c r="R1" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="121"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="115"/>
       <c r="I2" s="12">
         <v>1</v>
       </c>
@@ -5451,12 +7917,12 @@
       <c r="P2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="124"/>
+      <c r="Q2" s="118"/>
       <c r="R2" s="49" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="T2" s="50" t="s">
         <v>80</v>
@@ -5536,12 +8002,12 @@
         <v>20</v>
       </c>
       <c r="R4" s="64" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="T4" s="66" t="s">
         <v>48</v>
       </c>
       <c r="W4" s="4" t="s">
@@ -5573,7 +8039,6 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
@@ -5586,9 +8051,11 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
+      <c r="R10" s="101"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
+      <c r="R11" s="101"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
@@ -5850,32 +8317,28 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="R10:R11"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{4CFDF94C-A7D1-4126-AB34-85500901ED3D}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -5890,16 +8353,559 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
+    <col min="21" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>2</v>
+      </c>
+      <c r="K2" s="12">
+        <v>3</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12">
+        <v>3</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6141,7 +9147,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -6159,16 +9165,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6409,7 +9413,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -6425,1883 +9429,4 @@
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="69"/>
-    </row>
-    <row r="3" spans="1:24" s="68" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-    </row>
-    <row r="4" spans="1:24" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="73"/>
-      <c r="S4" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="T4" s="79"/>
-      <c r="U4" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="V4" s="80"/>
-      <c r="X4" s="74"/>
-    </row>
-    <row r="5" spans="1:24" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="85"/>
-      <c r="M5" s="85"/>
-    </row>
-    <row r="6" spans="1:24" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="J6" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="R6" s="88"/>
-      <c r="S6" s="92" t="s">
-        <v>136</v>
-      </c>
-      <c r="T6" s="88"/>
-      <c r="U6" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="V6" s="89"/>
-      <c r="X6" s="89"/>
-    </row>
-    <row r="7" spans="1:24" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="83"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:24" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="83"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D1:F3">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:B202"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/owlcms/src/main/resources/templates/competitionBook/Masters-LEGAL.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Masters-LEGAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B93F64-3321-4F72-BB1A-CCC380F34DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CDDD2D-E454-468F-9E75-D905B5E80CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25920" yWindow="2745" windowWidth="24225" windowHeight="11295" tabRatio="555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="555" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="33" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">WSMF!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">WT!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="155">
   <si>
     <t>M/F</t>
   </si>
@@ -489,6 +489,33 @@
   </si>
   <si>
     <t>${l.qAge}</t>
+  </si>
+  <si>
+    <t>${t.get("Medal.Gold")}</t>
+  </si>
+  <si>
+    <t>${t.get("Medal.Silver")}</t>
+  </si>
+  <si>
+    <t>${t.get("Medal.Bronze")}</t>
+  </si>
+  <si>
+    <t>$[sumif(a10:a14,a5,n10:n14)]</t>
+  </si>
+  <si>
+    <t>$[sumif(a10:a14,a5,o10:o14)]</t>
+  </si>
+  <si>
+    <t>$[sumif(a10:a14,a5,p10:p14)]</t>
+  </si>
+  <si>
+    <t>$[countif(j12:j12,1)]</t>
+  </si>
+  <si>
+    <t>$[countif(j12:j12,2)]</t>
+  </si>
+  <si>
+    <t>$[countif(j12:j12,3)]</t>
   </si>
 </sst>
 </file>
@@ -668,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1075,6 +1102,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1089,7 +1157,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1354,10 +1422,44 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1377,32 +1479,29 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1425,30 +1524,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1971,7 +2046,9 @@
   </sheetPr>
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1986,14 +2063,14 @@
       <c r="A1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
       <c r="J1" s="53" t="s">
@@ -2007,14 +2084,14 @@
       <c r="A2" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
       <c r="J2" s="53" t="s">
@@ -2028,14 +2105,14 @@
       <c r="A3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -3677,7 +3754,9 @@
   </sheetPr>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3923,7 +4002,9 @@
   </sheetPr>
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5561,7 +5642,9 @@
   </sheetPr>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5589,58 +5672,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="102" t="s">
+      <c r="D1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="105" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="112" t="s">
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="112"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
       <c r="I2" s="38">
         <v>1</v>
       </c>
@@ -5798,11 +5881,11 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="R12" s="101"/>
+      <c r="R12" s="111"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="R13" s="101"/>
+      <c r="R13" s="111"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
@@ -6080,11 +6163,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -6092,6 +6170,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5">
     <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
@@ -6116,6 +6199,572 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FABBA97-39C6-49D5-A158-F8A84417C014}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
+    <col min="21" max="22" width="10.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>2</v>
+      </c>
+      <c r="K2" s="12">
+        <v>3</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12">
+        <v>3</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="T4" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="R10" s="111"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="R11" s="111"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{CC0A5D4E-226B-4BC3-B392-FD2BD37BEA1D}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6148,62 +6797,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="102" t="s">
+      <c r="D1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116" t="s">
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="117" t="s">
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
+      <c r="R1" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="115"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="124"/>
       <c r="I2" s="12">
         <v>1</v>
       </c>
@@ -6228,12 +6877,12 @@
       <c r="P2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="118"/>
+      <c r="Q2" s="127"/>
       <c r="R2" s="49" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="T2" s="50" t="s">
         <v>80</v>
@@ -6313,10 +6962,10 @@
         <v>20</v>
       </c>
       <c r="R4" s="64" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="T4" s="66" t="s">
         <v>48</v>
@@ -6363,11 +7012,11 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="R10" s="101"/>
+      <c r="R10" s="111"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="R11" s="101"/>
+      <c r="R11" s="111"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
@@ -6645,575 +7294,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:T1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{CC0A5D4E-226B-4BC3-B392-FD2BD37BEA1D}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:W102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
-    <col min="21" max="22" width="10.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>2</v>
-      </c>
-      <c r="K2" s="12">
-        <v>3</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="12">
-        <v>1</v>
-      </c>
-      <c r="N2" s="12">
-        <v>2</v>
-      </c>
-      <c r="O2" s="12">
-        <v>3</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="101"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="101"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="G1:G2"/>
@@ -7222,6 +7302,11 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
     <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
@@ -7251,7 +7336,9 @@
   </sheetPr>
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7278,58 +7365,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="102" t="s">
+      <c r="D1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="105" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="112" t="s">
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="112"/>
+      <c r="T1" s="110"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
       <c r="I2" s="38">
         <v>1</v>
       </c>
@@ -7488,11 +7575,11 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="R12" s="101"/>
+      <c r="R12" s="111"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="R13" s="101"/>
+      <c r="R13" s="111"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
@@ -7770,11 +7857,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="N1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="E1:E2"/>
@@ -7782,6 +7864,11 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5">
     <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
@@ -7806,6 +7893,555 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE7FAB-7408-465B-A4E4-22C597EFEB85}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
+    <col min="21" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="114" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>2</v>
+      </c>
+      <c r="K2" s="12">
+        <v>3</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12">
+        <v>3</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="T4" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="R10" s="111"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="R11" s="111"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{4CFDF94C-A7D1-4126-AB34-85500901ED3D}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7837,62 +8473,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="102" t="s">
+      <c r="D1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116" t="s">
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="117" t="s">
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
+      <c r="R1" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="115"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="124"/>
       <c r="I2" s="12">
         <v>1</v>
       </c>
@@ -7917,12 +8553,12 @@
       <c r="P2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="118"/>
+      <c r="Q2" s="127"/>
       <c r="R2" s="49" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="T2" s="50" t="s">
         <v>80</v>
@@ -8002,12 +8638,12 @@
         <v>20</v>
       </c>
       <c r="R4" s="64" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="T4" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="67" t="s">
         <v>48</v>
       </c>
       <c r="W4" s="4" t="s">
@@ -8039,553 +8675,6 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="101"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="101"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:T1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{4CFDF94C-A7D1-4126-AB34-85500901ED3D}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:W97"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
-    <col min="21" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>2</v>
-      </c>
-      <c r="K2" s="12">
-        <v>3</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="12">
-        <v>1</v>
-      </c>
-      <c r="N2" s="12">
-        <v>2</v>
-      </c>
-      <c r="O2" s="12">
-        <v>3</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -8864,11 +8953,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="F1:F2"/>
@@ -8876,6 +8960,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
@@ -8905,7 +8994,9 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8930,7 +9021,10 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>74</v>
@@ -8944,6 +9038,18 @@
       <c r="D3" s="44" t="s">
         <v>66</v>
       </c>
+      <c r="M3" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -8951,8 +9057,8 @@
       </c>
       <c r="B4" s="20"/>
       <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -8970,6 +9076,18 @@
       </c>
       <c r="D5" s="42" t="s">
         <v>44</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="100" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9038,6 +9156,15 @@
       <c r="M10" s="40" t="s">
         <v>86</v>
       </c>
+      <c r="N10" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="99" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9088,8 +9215,17 @@
       <c r="L12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="101" t="s">
         <v>36</v>
+      </c>
+      <c r="N12" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="P12" s="101" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9097,6 +9233,9 @@
         <v>22</v>
       </c>
       <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -9118,6 +9257,9 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9154,7 +9296,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="98" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="92" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -9172,7 +9314,9 @@
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9197,7 +9341,10 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>74</v>
@@ -9211,14 +9358,26 @@
       <c r="D3" s="47" t="s">
         <v>69</v>
       </c>
+      <c r="M3" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -9236,6 +9395,18 @@
       </c>
       <c r="D5" s="42" t="s">
         <v>43</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="100" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9304,6 +9475,15 @@
       <c r="M10" s="40" t="s">
         <v>86</v>
       </c>
+      <c r="N10" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="99" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9354,8 +9534,17 @@
       <c r="L12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="101" t="s">
         <v>36</v>
+      </c>
+      <c r="N12" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="P12" s="101" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9363,6 +9552,9 @@
         <v>22</v>
       </c>
       <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -9384,6 +9576,9 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9420,7 +9615,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="98" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="92" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>

--- a/owlcms/src/main/resources/templates/competitionBook/Masters-LEGAL.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/Masters-LEGAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CDDD2D-E454-468F-9E75-D905B5E80CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501448AC-9B2B-47B5-8FE7-37E04D0BB7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="555" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="33" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="158">
   <si>
     <t>M/F</t>
   </si>
@@ -116,9 +116,6 @@
     <t>${l.total}</t>
   </si>
   <si>
-    <t>${l.rank}</t>
-  </si>
-  <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
@@ -516,6 +513,18 @@
   </si>
   <si>
     <t>$[countif(j12:j12,3)]</t>
+  </si>
+  <si>
+    <t>${l.snatchRank &lt; 0 ? t.get("Results.Extra/Invited") : l.snatchRank}</t>
+  </si>
+  <si>
+    <t>${l.cleanJerkRank &lt; 0 ? t.get("Results.Extra/Invited") : l.cleanJerkRank}</t>
+  </si>
+  <si>
+    <t>${l.totalRank &lt; 0 ? t.get("Results.Extra/Invited") : l.totalRank}</t>
+  </si>
+  <si>
+    <t>${l.qAgeRank &lt; 0 ? t.get("Results.Extra/Invited") : l.qAgeRank}</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
     <numFmt numFmtId="169" formatCode="0;&quot;&quot;"/>
     <numFmt numFmtId="170" formatCode="0;&quot;&quot;;\-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -648,6 +657,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1157,7 +1172,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1210,10 +1225,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1435,6 +1446,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1462,22 +1490,27 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1503,27 +1536,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2060,69 +2078,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="59"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N6"/>
@@ -2133,167 +2151,167 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="L8" s="57"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="55"/>
+        <v>105</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="L8" s="56"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="51"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="50"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
       <c r="K9"/>
-      <c r="L9" s="55"/>
-      <c r="N9" s="57"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="55"/>
-    </row>
-    <row r="10" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="51" t="s">
+      <c r="L9" s="54"/>
+      <c r="N9" s="56"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="54"/>
+    </row>
+    <row r="10" spans="1:19" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="D10" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="H10" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="M10" s="51" t="s">
+      <c r="I10" s="50" t="s">
         <v>101</v>
       </c>
+      <c r="L10" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C11" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="52" t="s">
         <v>99</v>
       </c>
+      <c r="D11" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="H11" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="51"/>
+      <c r="I11" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="50"/>
       <c r="K11" s="1"/>
-      <c r="M11" s="51" t="s">
-        <v>96</v>
+      <c r="M11" s="50" t="s">
+        <v>95</v>
       </c>
       <c r="N11" s="1"/>
       <c r="P11"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="52"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="51"/>
       <c r="S11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C12" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>94</v>
       </c>
+      <c r="D12" s="50" t="s">
+        <v>93</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="H12" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="51"/>
+      <c r="I12" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="50"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="51" t="s">
-        <v>91</v>
+      <c r="M12" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="51"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="52"/>
+      <c r="O12" s="50"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="51"/>
       <c r="S12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="52" t="s">
         <v>89</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="M13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N13"/>
       <c r="S13"/>
     </row>
     <row r="14" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
+      <c r="E15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -3778,188 +3796,188 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" s="67" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:24" s="67" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+    </row>
+    <row r="4" spans="1:24" s="80" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="69"/>
-    </row>
-    <row r="3" spans="1:24" s="68" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-    </row>
-    <row r="4" spans="1:24" s="81" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75" t="s">
+      <c r="E4" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="F4" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="77" t="s">
+      <c r="H4" s="77"/>
+      <c r="I4" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="75" t="s">
+      <c r="J4" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="72"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="72"/>
+      <c r="S4" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="73"/>
-      <c r="S4" s="72" t="s">
+      <c r="T4" s="78"/>
+      <c r="U4" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="T4" s="79"/>
-      <c r="U4" s="72" t="s">
+      <c r="V4" s="79"/>
+      <c r="X4" s="73"/>
+    </row>
+    <row r="5" spans="1:24" s="85" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="V4" s="80"/>
-      <c r="X4" s="74"/>
-    </row>
-    <row r="5" spans="1:24" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="84"/>
+      <c r="M5" s="84"/>
+    </row>
+    <row r="6" spans="1:24" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="85"/>
-      <c r="M5" s="85"/>
-    </row>
-    <row r="6" spans="1:24" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90" t="s">
+      <c r="E6" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="F6" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="G6" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="88"/>
+      <c r="I6" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="J6" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="93" t="s">
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="91" t="s">
+      <c r="O6" s="87"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="87" t="s">
+      <c r="R6" s="87"/>
+      <c r="S6" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="R6" s="88"/>
-      <c r="S6" s="92" t="s">
+      <c r="T6" s="87"/>
+      <c r="U6" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="T6" s="88"/>
-      <c r="U6" s="94" t="s">
+      <c r="V6" s="88"/>
+      <c r="X6" s="88"/>
+    </row>
+    <row r="7" spans="1:24" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="82"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:24" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="V6" s="89"/>
-      <c r="X6" s="89"/>
-    </row>
-    <row r="7" spans="1:24" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="83"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:24" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="83"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="82"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:D5">
@@ -4010,10 +4028,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
         <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5672,59 +5690,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="104" t="s">
+      <c r="A1" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="112" t="s">
+      <c r="C1" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="G1" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="H1" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="I1" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="115" t="s">
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="110"/>
+      <c r="T1" s="114"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="38">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="37">
         <v>1</v>
       </c>
       <c r="J2" s="12">
@@ -5733,11 +5751,11 @@
       <c r="K2" s="12">
         <v>3</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>80</v>
       </c>
       <c r="N2" s="12">
         <v>1</v>
@@ -5748,22 +5766,22 @@
       <c r="P2" s="12">
         <v>3</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>80</v>
+      <c r="Q2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -5782,68 +5800,68 @@
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="26" t="s">
+      <c r="M4" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23" t="s">
-        <v>21</v>
+      <c r="T4" s="128" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -5881,11 +5899,11 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="R12" s="111"/>
+      <c r="R12" s="103"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="R13" s="111"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
@@ -6163,6 +6181,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -6170,11 +6193,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5">
     <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
@@ -6189,7 +6207,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="96" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -6199,572 +6217,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FABBA97-39C6-49D5-A158-F8A84417C014}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:W102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
-    <col min="21" max="22" width="10.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>2</v>
-      </c>
-      <c r="K2" s="12">
-        <v>3</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="12">
-        <v>1</v>
-      </c>
-      <c r="N2" s="12">
-        <v>2</v>
-      </c>
-      <c r="O2" s="12">
-        <v>3</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="111"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="111"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{CC0A5D4E-226B-4BC3-B392-FD2BD37BEA1D}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6797,62 +6249,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="117" t="s">
+      <c r="A1" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="112" t="s">
+      <c r="C1" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="G1" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="H1" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="I1" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="125" t="s">
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125" t="s">
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
+      <c r="R1" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="124"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="117"/>
       <c r="I2" s="12">
         <v>1</v>
       </c>
@@ -6862,7 +6314,7 @@
       <c r="K2" s="12">
         <v>3</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="12">
@@ -6874,23 +6326,23 @@
       <c r="O2" s="12">
         <v>3</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>80</v>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -6912,63 +6364,63 @@
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>48</v>
+      <c r="R4" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" s="65" t="s">
+        <v>157</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>2</v>
@@ -6976,7 +6428,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -7012,11 +6464,11 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="R10" s="111"/>
+      <c r="R10" s="103"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="R11" s="111"/>
+      <c r="R11" s="103"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
@@ -7294,6 +6746,577 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{CC0A5D4E-226B-4BC3-B392-FD2BD37BEA1D}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="81" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
+    <col min="21" max="22" width="10.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>2</v>
+      </c>
+      <c r="K2" s="12">
+        <v>3</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12">
+        <v>3</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="R10" s="103"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="R11" s="103"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="G1:G2"/>
@@ -7302,11 +7325,6 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
     <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
@@ -7337,7 +7355,7 @@
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7365,59 +7383,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="104" t="s">
+      <c r="A1" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="B1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="112" t="s">
+      <c r="C1" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="G1" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="H1" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="I1" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="115" t="s">
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="110"/>
+      <c r="T1" s="114"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="38">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="37">
         <v>1</v>
       </c>
       <c r="J2" s="12">
@@ -7426,11 +7444,11 @@
       <c r="K2" s="12">
         <v>3</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>80</v>
       </c>
       <c r="N2" s="12">
         <v>1</v>
@@ -7441,22 +7459,22 @@
       <c r="P2" s="12">
         <v>3</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>80</v>
+      <c r="Q2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -7475,68 +7493,68 @@
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="26" t="s">
+      <c r="M4" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="24" t="s">
+      <c r="R4" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="23" t="s">
-        <v>21</v>
+      <c r="T4" s="128" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -7575,11 +7593,11 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
-      <c r="R12" s="111"/>
+      <c r="R12" s="103"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
-      <c r="R13" s="111"/>
+      <c r="R13" s="103"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
@@ -7857,6 +7875,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="E1:E2"/>
@@ -7864,11 +7887,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5">
     <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
@@ -7883,7 +7901,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -7893,6 +7911,555 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE7FAB-7408-465B-A4E4-22C597EFEB85}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
+    <col min="21" max="23" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>2</v>
+      </c>
+      <c r="K2" s="12">
+        <v>3</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="12">
+        <v>3</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="S4" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="R10" s="103"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="R11" s="103"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{4CFDF94C-A7D1-4126-AB34-85500901ED3D}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup paperSize="5" scale="81" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7924,62 +8491,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="117" t="s">
+      <c r="A1" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="B1" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="112" t="s">
+      <c r="C1" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="G1" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="H1" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="I1" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="125" t="s">
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125" t="s">
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
+      <c r="R1" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="124"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="117"/>
       <c r="I2" s="12">
         <v>1</v>
       </c>
@@ -7989,7 +8556,7 @@
       <c r="K2" s="12">
         <v>3</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="12">
@@ -8001,23 +8568,23 @@
       <c r="O2" s="12">
         <v>3</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="50" t="s">
+      <c r="Q2" s="120"/>
+      <c r="R2" s="48" t="s">
         <v>80</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -8039,63 +8606,63 @@
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="63" t="s">
+      <c r="I4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="66" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>48</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>2</v>
@@ -8103,7 +8670,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -8126,6 +8693,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
@@ -8138,11 +8706,9 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="R10" s="111"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="R11" s="111"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
@@ -8404,555 +8970,12 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{4CFDF94C-A7D1-4126-AB34-85500901ED3D}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup paperSize="5" scale="90" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:W97"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="22" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="22" customWidth="1"/>
-    <col min="21" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="116" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
-      <c r="J2" s="12">
-        <v>2</v>
-      </c>
-      <c r="K2" s="12">
-        <v>3</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="12">
-        <v>1</v>
-      </c>
-      <c r="N2" s="12">
-        <v>2</v>
-      </c>
-      <c r="O2" s="12">
-        <v>3</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="F1:F2"/>
@@ -8960,11 +8983,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
@@ -9016,7 +9034,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9026,34 +9044,34 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="45" t="s">
+      <c r="A3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="99" t="s">
+      <c r="P3" s="98" t="s">
         <v>147</v>
-      </c>
-      <c r="P3" s="99" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="20"/>
       <c r="M4"/>
@@ -9065,34 +9083,34 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="42" t="s">
+      <c r="A5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="P5" s="99" t="s">
         <v>150</v>
-      </c>
-      <c r="P5" s="100" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -9110,65 +9128,65 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>74</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="P10" s="98" t="s">
         <v>147</v>
-      </c>
-      <c r="P10" s="99" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -9189,48 +9207,48 @@
         <v>8</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="J12" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="O12" s="101" t="s">
+      <c r="P12" s="100" t="s">
         <v>153</v>
-      </c>
-      <c r="P12" s="101" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -9263,27 +9281,27 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9336,7 +9354,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -9346,34 +9364,34 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="10" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="45" t="s">
+      <c r="A3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="O3" s="99" t="s">
+      <c r="P3" s="98" t="s">
         <v>147</v>
-      </c>
-      <c r="P3" s="99" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4"/>
       <c r="N4" s="20"/>
@@ -9384,34 +9402,34 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="42" t="s">
+      <c r="M5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="P5" s="99" t="s">
         <v>150</v>
-      </c>
-      <c r="P5" s="100" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -9429,65 +9447,65 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>74</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="P10" s="98" t="s">
         <v>147</v>
-      </c>
-      <c r="P10" s="99" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -9508,48 +9526,48 @@
         <v>8</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="J12" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="O12" s="101" t="s">
+      <c r="P12" s="100" t="s">
         <v>153</v>
-      </c>
-      <c r="P12" s="101" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -9582,27 +9600,27 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
